--- a/data/trans_camb/P19C07-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Dificultad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.7926433955227078</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.8994875060931842</v>
+        <v>-0.8994875060931838</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.647492712857066</v>
+        <v>-2.485360247672495</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.326846312218172</v>
+        <v>-2.284362621561754</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.937905076061416</v>
+        <v>-3.846290173912613</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.073615891759159</v>
+        <v>-2.061878451905093</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.4608138766378943</v>
+        <v>-0.275455769211619</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.90217898720959</v>
+        <v>-2.019244799838053</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.44412050379295</v>
+        <v>-1.453348882890158</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.5245218564252936</v>
+        <v>-0.5687928225619107</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.143747208845406</v>
+        <v>-2.085352741599706</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.679021242563146</v>
+        <v>1.651722047496698</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.878102326979119</v>
+        <v>1.973764972364376</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.495542362294203</v>
+        <v>0.4698905220442255</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.012396530099615</v>
+        <v>0.9450166338942667</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.120742659126468</v>
+        <v>3.029548462842384</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.16925858730311</v>
+        <v>1.111956346769387</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9194791156266912</v>
+        <v>1.059412125468207</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.122075159077392</v>
+        <v>2.018748629006057</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4389915119117023</v>
+        <v>0.345654064645693</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.0287742888974269</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.5377223938427159</v>
+        <v>-0.537722393842716</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.1698981610042627</v>
@@ -769,7 +769,7 @@
         <v>0.2877563267087322</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.3265443478565614</v>
+        <v>-0.3265443478565613</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5605786790739864</v>
+        <v>-0.5358281459803482</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5043519808106964</v>
+        <v>-0.5108371948523328</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8875674641861584</v>
+        <v>-0.8652773550207259</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5917325497804055</v>
+        <v>-0.5994253133752127</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.165969519903069</v>
+        <v>-0.08808678244793049</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5708239604914184</v>
+        <v>-0.5865849203039861</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4173934029747309</v>
+        <v>-0.4159391259772785</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1579952535207017</v>
+        <v>-0.1655267723358833</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.616170939289753</v>
+        <v>-0.6124059962508965</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.9722399173319215</v>
+        <v>0.9147546764436936</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.018132807732743</v>
+        <v>1.204256956441626</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4127572132742678</v>
+        <v>0.4946407886728959</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6113158474375386</v>
+        <v>0.5853841791917311</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.711238883102497</v>
+        <v>1.660359152120632</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7575118229027783</v>
+        <v>0.6520714914848446</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4746063913481899</v>
+        <v>0.5244851097506106</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.048121778424491</v>
+        <v>1.003272672424393</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.226350774028471</v>
+        <v>0.1816416722860791</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-0.9899985132589662</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.6512164741725563</v>
+        <v>-0.6512164741725567</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.889698793757303</v>
+        <v>-1.980018965071259</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.039156272987943</v>
+        <v>-3.380419461233622</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.881511026019722</v>
+        <v>-3.050259588549825</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.512440961983832</v>
+        <v>-1.590223123277966</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.333553430624558</v>
+        <v>-2.291251441877029</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.781614182847857</v>
+        <v>-1.772231363131567</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.288668472603635</v>
+        <v>-1.378438803886144</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.190421882818135</v>
+        <v>-2.183961540141722</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.869248029689937</v>
+        <v>-1.849121016236166</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.648120564673393</v>
+        <v>1.411646369759252</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2540665997462647</v>
+        <v>0.07916853454387644</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6142831823749407</v>
+        <v>0.6334784570617789</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.262307219776308</v>
+        <v>2.115767555461122</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.030610138795642</v>
+        <v>0.9797608584443382</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.471323658136033</v>
+        <v>1.401823200728764</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.334277612140091</v>
+        <v>1.307802003840689</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1198958191464521</v>
+        <v>0.252853240846582</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.562100140644901</v>
+        <v>0.3977958647872802</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.2826839266955349</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1859481883886076</v>
+        <v>-0.1859481883886077</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4410349035568925</v>
+        <v>-0.4468582289260581</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.704111918888576</v>
+        <v>-0.7102150469033006</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6477718258484574</v>
+        <v>-0.6595418160296136</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3464783523427328</v>
+        <v>-0.3671883286858971</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5352769194211466</v>
+        <v>-0.5245501634254001</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4010578284912997</v>
+        <v>-0.4162747414224802</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3258470746381928</v>
+        <v>-0.3248559770313687</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.510299847151068</v>
+        <v>-0.5134839280604286</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.453054145098959</v>
+        <v>-0.4502833833791898</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6247374551352748</v>
+        <v>0.5616406146891546</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.08692301908664155</v>
+        <v>0.08120717585899546</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2985824308317563</v>
+        <v>0.2972731256548211</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8961496502481682</v>
+        <v>0.831842281077685</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4182210545716415</v>
+        <v>0.3984499204751687</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5813471249103007</v>
+        <v>0.5730640564089811</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4648484784247898</v>
+        <v>0.4566785008953627</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.06522986210139266</v>
+        <v>0.09143089824940985</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2082262073303556</v>
+        <v>0.1337598359769136</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.3159896177812899</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8170237673465099</v>
+        <v>0.8170237673465107</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.4675865036643051</v>
@@ -1092,7 +1092,7 @@
         <v>0.01118790036026482</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.9718927097791069</v>
+        <v>0.9718927097791076</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.533708500633679</v>
+        <v>-1.774491259141286</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.41217850444695</v>
+        <v>-1.634932843472746</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.088134382381604</v>
+        <v>-1.257749456343945</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.44618109076343</v>
+        <v>-1.362600513821601</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.150379092810206</v>
+        <v>-2.232331786537297</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.7929573527986009</v>
+        <v>-0.983622509595531</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.9531037103582036</v>
+        <v>-1.104081988017299</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.249888550638477</v>
+        <v>-1.39405936990231</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.4611745841856603</v>
+        <v>-0.3770373304087871</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.840006239193265</v>
+        <v>1.918088744788035</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.090530397834043</v>
+        <v>2.195352420626776</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.894990609400002</v>
+        <v>2.629892183172775</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.555234397606424</v>
+        <v>2.24033948732925</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.776090472373482</v>
+        <v>1.759953177998158</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.908535748776877</v>
+        <v>2.818690902221606</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.640325936699899</v>
+        <v>1.513163668375131</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.447661237343834</v>
+        <v>1.49417312139959</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.292526234492242</v>
+        <v>2.343652468658609</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.09541899376437253</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.2467156557521457</v>
+        <v>0.2467156557521459</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1183741549765246</v>
@@ -1197,7 +1197,7 @@
         <v>0.003091133127185845</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2685266810150163</v>
+        <v>0.2685266810150164</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3869306161233087</v>
+        <v>-0.422257658410905</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3512902828820161</v>
+        <v>-0.401363224795762</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.273961304438858</v>
+        <v>-0.3118968538401126</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2964759474317662</v>
+        <v>-0.2939893542079963</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4586347804866642</v>
+        <v>-0.4785681535384611</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1677405916796068</v>
+        <v>-0.2041233981286992</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2293792014538981</v>
+        <v>-0.242550040138802</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3022616231366785</v>
+        <v>-0.3322984795128883</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1126629602582108</v>
+        <v>-0.09306158139255204</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7414422245855928</v>
+        <v>0.829703599112479</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7942361559997654</v>
+        <v>0.8607433010742936</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.095670723530893</v>
+        <v>0.998753408308487</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8901875919115674</v>
+        <v>0.7264396270795299</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5599428325241617</v>
+        <v>0.5541462089458729</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9855830526411276</v>
+        <v>0.9124811197060498</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5178934298883757</v>
+        <v>0.4962305226153185</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4841352410467343</v>
+        <v>0.5220580055897335</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7441608049114925</v>
+        <v>0.7777132223036851</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-1.730205663075268</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.7813614239627078</v>
+        <v>0.7813614239627086</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.664135518531674</v>
@@ -1306,7 +1306,7 @@
         <v>-0.4335868440368047</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.544565876507936</v>
+        <v>1.544565876507937</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.813776267889353</v>
+        <v>-2.860403799939995</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.486900837893023</v>
+        <v>-4.528072166059474</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.10166798000616</v>
+        <v>-2.130629410263442</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.110056852439555</v>
+        <v>-1.249393966644353</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.983641030725305</v>
+        <v>-2.007321374655614</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.3552091963302384</v>
+        <v>-0.4033654688061809</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.222727145724521</v>
+        <v>-1.366574276276944</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.274636825065792</v>
+        <v>-2.542546939418849</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.4380605952299539</v>
+        <v>-0.3552087688722632</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.006434912926177</v>
+        <v>2.990409558704812</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.664209291247932</v>
+        <v>0.7957962169241675</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.309949684351972</v>
+        <v>3.532846553960105</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.735731261422849</v>
+        <v>4.475959238724856</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.854122556216973</v>
+        <v>3.64394544882532</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.050704588525896</v>
+        <v>4.909164642692883</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.923802065725741</v>
+        <v>2.852578573642704</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.421498100596718</v>
+        <v>1.656972332751742</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.381681706175512</v>
+        <v>3.325726555990044</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.4076500920949535</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.18409491035401</v>
+        <v>0.1840949103540102</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.500412539797096</v>
@@ -1411,7 +1411,7 @@
         <v>-0.1131935953823576</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4032294043773961</v>
+        <v>0.4032294043773965</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.510511888785171</v>
+        <v>-0.4783436113970234</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7441949278968416</v>
+        <v>-0.7652328753728018</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3643868885308241</v>
+        <v>-0.3635328531664694</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2793142756289266</v>
+        <v>-0.2974318048819998</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4304586220613715</v>
+        <v>-0.4430453223475336</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1050033709883911</v>
+        <v>-0.1149263435025324</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.262387502326969</v>
+        <v>-0.2722882345918795</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4692988090685323</v>
+        <v>-0.5231351672375162</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.08840685098607433</v>
+        <v>-0.07183806977192794</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.128286238199192</v>
+        <v>1.093950330317957</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3212945559083755</v>
+        <v>0.332374707774124</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.183898708654901</v>
+        <v>1.38178426435411</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.441593176955316</v>
+        <v>2.538880826539307</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.866587191785675</v>
+        <v>1.863384016250405</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.609900703477888</v>
+        <v>2.733454496155917</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.070004859253836</v>
+        <v>1.089538265870712</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5161292903114897</v>
+        <v>0.6233657370638719</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.202759704343294</v>
+        <v>1.235685865866055</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-0.6099840913115763</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.04362805864055255</v>
+        <v>0.04362805864055186</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.2421957399791216</v>
@@ -1520,7 +1520,7 @@
         <v>-0.1651461489607979</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.4666778591061245</v>
+        <v>0.4666778591061259</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.241271343307623</v>
+        <v>-1.259108594120323</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.612799465080843</v>
+        <v>-1.682750426214541</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.9971421669109884</v>
+        <v>-0.9475607667303663</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.7241833711250643</v>
+        <v>-0.7131840253443562</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.8207340599724775</v>
+        <v>-0.6654301539246449</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.09849883771258314</v>
+        <v>-0.07984526898175945</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.664598430449606</v>
+        <v>-0.6001967970741336</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.7877838684004781</v>
+        <v>-0.8196013731214621</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.205343360661495</v>
+        <v>-0.2235106033748605</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8966276447238892</v>
+        <v>0.8767373489114015</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3188557396983321</v>
+        <v>0.2634529387888688</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.081132301522175</v>
+        <v>1.205903362362723</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.217785982587309</v>
+        <v>1.215818571050804</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.152657382428173</v>
+        <v>1.237799802614892</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.876429722309886</v>
+        <v>1.874028836533283</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.7104037691342057</v>
+        <v>0.8063449788591982</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.5574140504926199</v>
+        <v>0.5529091690956797</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.20999564356848</v>
+        <v>1.24649858595081</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1755377851961592</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.0125550369185922</v>
+        <v>0.012555036918592</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.07199544464214325</v>
@@ -1625,7 +1625,7 @@
         <v>-0.04833568336893296</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.136589277891062</v>
+        <v>0.1365892778910624</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3169645508253777</v>
+        <v>-0.3061294559639013</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4021730969672892</v>
+        <v>-0.4105383003159267</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2455907959437489</v>
+        <v>-0.2421972670552631</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1891332154506471</v>
+        <v>-0.1911438366255145</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.212113921673668</v>
+        <v>-0.1747011320189809</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.03625631675893789</v>
+        <v>-0.02227942967854063</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1768703409187764</v>
+        <v>-0.1550437251921124</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2132495190953135</v>
+        <v>-0.2131202036455658</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.0526392320396192</v>
+        <v>-0.05736581344233572</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.306268934896792</v>
+        <v>0.2907970308266489</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1070473293147209</v>
+        <v>0.1051578912601668</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3710602899634621</v>
+        <v>0.4156641862803875</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4231090359413228</v>
+        <v>0.4271797157725604</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3963277472814428</v>
+        <v>0.4364975086665845</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6500475728644598</v>
+        <v>0.6713591279019471</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2332812039127889</v>
+        <v>0.267398974538786</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1847546206169884</v>
+        <v>0.1850747064700474</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4029578837939351</v>
+        <v>0.4176904304016636</v>
       </c>
     </row>
     <row r="34">
